--- a/data/3D Simple obstacles/3D.xlsx
+++ b/data/3D Simple obstacles/3D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5958D000-E102-448D-B4A1-D866C5BA1609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A393FDC-DB25-4F08-A2B9-F303A4644A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -519,7 +519,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -536,7 +536,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -604,8 +604,10 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{6074CB9F-14A6-4AFD-822D-803F314B82E0}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{4B1592DE-A2A9-4540-B55A-DBB84AC7F92D}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{E2B1E0FE-1E63-44CF-AFDF-834E6A69EAAC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{BB0F6D3C-4B7F-437C-8307-E2F5753F4B30}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{7119BBE2-2616-42B2-A1F2-11D4B82C4061}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/3D Simple obstacles/3D.xlsx
+++ b/data/3D Simple obstacles/3D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A393FDC-DB25-4F08-A2B9-F303A4644A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF6D15-9429-4DAB-A325-7A8CA8E0C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Number</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Guo, Y.; Liu, X.; Jiang, W.; Zhang, W. Collision-Free 4D Dynamic Path Planning for Multiple UAVs Based on Dynamic Priority RRT* and Artificial Potential Field. Drones 2023, 7, http://doi.org/10.3390/drones7030180.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huang, H.; Zhou, H.; Zheng, M.; Xu, C.; Zhang, X.; Xiong, W. Cooperative Collision Avoidance Method for MultiUAV Based on Kalman Filter and Model Predictive Control. In Proceedings of the International Conference on Unmanned Systems and Artificial Intelligence（ICUSAI), 2019, </t>
   </si>
 </sst>
 </file>
@@ -427,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -547,8 +550,17 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">

--- a/data/3D Simple obstacles/3D.xlsx
+++ b/data/3D Simple obstacles/3D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF6D15-9429-4DAB-A325-7A8CA8E0C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95090258-1A84-4166-9F99-562711AAC83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,13 +140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +432,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -546,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -556,7 +557,7 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -618,8 +619,9 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{E2B1E0FE-1E63-44CF-AFDF-834E6A69EAAC}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{BB0F6D3C-4B7F-437C-8307-E2F5753F4B30}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{7119BBE2-2616-42B2-A1F2-11D4B82C4061}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{696266DC-B0DA-4063-9DC2-0FACBF057D39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/3D Simple obstacles/3D.xlsx
+++ b/data/3D Simple obstacles/3D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95090258-1A84-4166-9F99-562711AAC83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE002E3-678B-4DA8-86C1-AE9D304296B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,19 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -100,8 +87,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -138,16 +138,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,183 +431,183 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.06640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="201" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.73046875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="201" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>2019</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>2019</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/3D Simple obstacles/3D.xlsx
+++ b/data/3D Simple obstacles/3D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\3D Simple obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE002E3-678B-4DA8-86C1-AE9D304296B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A68779B-BC65-4792-AC20-0FE6F101204F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Number</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">Huang, H.; Zhou, H.; Zheng, M.; Xu, C.; Zhang, X.; Xiong, W. Cooperative Collision Avoidance Method for MultiUAV Based on Kalman Filter and Model Predictive Control. In Proceedings of the International Conference on Unmanned Systems and Artificial Intelligence（ICUSAI), 2019, </t>
+  </si>
+  <si>
+    <t>Wu, Z.; Li, J.; Zuo, J.; Li, S. Path Planning of UAVs Based on Collision Probability and Kalman Filter. IEEE Access 2018, 6, 34237-34245, http://doi.org/10.1109/access.2018.2817648.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -567,8 +570,17 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
